--- a/eclipse-workspace/test-files/products.xlsx
+++ b/eclipse-workspace/test-files/products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehmet\Documents\GitHub\capstone-project\eclipse-workspace\QvxWriter\test-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehmet\Documents\GitHub\capstone-project-2\eclipse-workspace\test-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -531,7 +531,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -856,7 +856,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
         <v>2.9</v>
       </c>
       <c r="E2" s="1">
-        <v>42036</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>4.5442999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>42037</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>42038</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
         <v>23.34</v>
       </c>
       <c r="E5" s="1">
-        <v>42039</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
